--- a/ij-2022.xlsx
+++ b/ij-2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Code\quickdrive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5403D16B-19A4-413F-A653-F634A0814205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA63A74B-A16B-49BF-A45C-81EBB42240BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="675" yWindow="2055" windowWidth="21503" windowHeight="12975" xr2:uid="{16ADF612-DA3E-4594-82F9-A078D0852175}"/>
+    <workbookView xWindow="2850" yWindow="2093" windowWidth="15247" windowHeight="11647" xr2:uid="{16ADF612-DA3E-4594-82F9-A078D0852175}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>Naam</t>
   </si>
@@ -197,12 +197,122 @@
 - Zp
 - Zl</t>
   </si>
+  <si>
+    <t>3618 Rsd-Zl
+18-11-2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100:
+- 128
+140: geen
+500:
+- 523
+600:
+- 626
+700: wzh!
+1500:
+- 1528
+- 1523
+1600: geen
+1700: geen
+1800: wzh!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000: rijdt niet?
+</t>
+  </si>
+  <si>
+    <t>Nm 07:22
+Ah 07:37-07:42
+Zp 08:02-08:04
+Dv 08:15-08:17
+Ost 08:23-08:26
+Wh 08:29-08:31
+Zl 08:41-08:47</t>
+  </si>
+  <si>
+    <t>3000:
+- 3020
+- 3022 &lt; 3119
+- 3017 &gt; 3122
+3100:
+- 3119 &gt; 3022
+- 3122 &lt; 3017
+- 3121
+3600:
+- 3623
+- 3625
+- 3627
+- 3614/3629
+- 3616/3631
+- 3633 Zl101*
+3800: geen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4600: wzh!
+5600:
+- 5621/5628
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6600:
+- 6614/6627
+- 6625
+</t>
+  </si>
+  <si>
+    <t>7000:
+- 7021
+7500:
+- 7519/7522
+7600:
+- 7619/7626
+- 7620
+- 7622
+- 7624
+7900:
+- 7926/7923
+8000:
+- 8030/8021
+8100:
+- 8126/8123
+8500:
+- 8526/8523
+9000:
+- 9026/9025</t>
+  </si>
+  <si>
+    <t>13800: geen
+17800:
+- 17817/17814
+17900:
+- 17926/17927</t>
+  </si>
+  <si>
+    <t>20000:
+- 20013
+30400: geen
+30700:
+- 30712/30719
+30800:
+- 30814
+- 30817
+30900:
+- 30910/30917
+31100: past niet!
+31200:
+- 31224/31219
+32200:
+- 32216/32223
+32300: geen</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,6 +332,14 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -250,17 +368,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -576,129 +699,154 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCB6DAB6-845B-4DF2-AE47-398917EAD6AB}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="27.73046875" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.73046875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.9296875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C1" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="C2" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="213.75" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="114" x14ac:dyDescent="0.45">
-      <c r="A4" s="1"/>
-      <c r="B4" s="3" t="s">
+      <c r="C3" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="114" x14ac:dyDescent="0.45">
+      <c r="B4" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="1"/>
-      <c r="B5" s="3" t="s">
+      <c r="C4" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="228" x14ac:dyDescent="0.45">
+      <c r="B5" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="57" x14ac:dyDescent="0.45">
-      <c r="A6" s="1"/>
-      <c r="B6" s="3" t="s">
+      <c r="C5" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+      <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A7" s="1"/>
-      <c r="B7" s="3" t="s">
+      <c r="C6" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="B7" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" s="1"/>
-      <c r="B8" s="3" t="s">
+      <c r="C7" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="270.75" x14ac:dyDescent="0.45">
+      <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A9" s="1"/>
-      <c r="B9" s="3" t="s">
+      <c r="C8" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="B9" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="114" x14ac:dyDescent="0.45">
-      <c r="A10" s="1"/>
-      <c r="B10" s="3" t="s">
+      <c r="C9" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="228" x14ac:dyDescent="0.45">
+      <c r="B10" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="C10" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -706,7 +854,7 @@
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -714,7 +862,7 @@
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -732,7 +880,7 @@
       <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>14</v>
       </c>
     </row>
